--- a/data/trans_bre/P42_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,62</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,76</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>59,13%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>179,7%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77,46%</t>
+          <t>174,85%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>257,86%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 14,59</t>
+          <t>-2,29; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 12,88</t>
+          <t>-2,88; 7,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 8,1</t>
+          <t>-0,52; 4,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,86</t>
+          <t>0,08; 5,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,36; 139,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,46; 395,49</t>
+          <t>-30,09; 248,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-35,73; 1037,21</t>
+          <t>-50,26; 320,29</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-75,41; 661,87</t>
+          <t>-71,84; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-52,75; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,41</t>
+          <t>-5,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,73%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>-65,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-62,12%</t>
+          <t>-64,22%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,53%</t>
+          <t>-63,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-56,5%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,40 +814,50 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 6,98</t>
+          <t>-11,56; -0,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 6,18</t>
+          <t>-8,08; 0,18</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 1,13</t>
+          <t>-5,03; 0,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 2,06</t>
+          <t>-3,79; 1,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,51; 73,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,61; 198,9</t>
+          <t>-90,08; 12,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 35,89</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,12 +876,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,25</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -840,20 +896,30 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>105,78%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>-35,48%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,12 +934,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 28,06</t>
+          <t>-11,45; 9,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,25; 9,25</t>
+          <t>-15,51; 5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -902,6 +968,16 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>-4,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>89,64%</t>
+          <t>-10,68%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85,64%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 8,28</t>
+          <t>-3,96; 4,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 7,31</t>
+          <t>-3,38; 2,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 4,11</t>
+          <t>-1,07; 2,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 4,4</t>
+          <t>-0,68; 2,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,03; 76,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 165,03</t>
+          <t>-43,86; 87,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,59; 501,52</t>
+          <t>-57,52; 115,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,87; 388,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-52,21; 741,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P42_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P42_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>59,13%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>47,81%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>174,85%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>257,86%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>9.717403560803064</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.027340153037635</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.041384252596471</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.884868675371575</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.8746239185248303</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.7553945171768844</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.726993016626454</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>3.143401300113804</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 9,12</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 7,38</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,52; 4,91</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 5,78</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-30,09; 248,97</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-50,26; 320,29</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-71,84; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-52,75; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.724896301653206</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.910016743042839</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.8469909662002493</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.325169420425142</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="6" t="n">
+        <v>-0.1270860481148011</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3647109869606101</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6620729309127841</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.5766604031568064</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.83353451912481</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>14.81535626659057</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.186829850655338</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.6950961169399</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="6" t="n">
+        <v>2.906727839333533</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>4.648647453114194</v>
+      </c>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-5,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,27</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-0,79</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-65,4%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-64,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-63,36%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-56,5%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-11,56; -0,83</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,08; 0,18</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 0,55</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 1,05</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-90,08; 12,53</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 35,89</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-8.649489374269443</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-4.727703258052864</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.138791656150864</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.7648926538284669</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.5680277379351268</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5417897862634223</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.4699441244261554</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3335954124258089</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,19</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,41</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-35,48%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.30304426696133</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.37539112089267</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-5.961904524585877</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-4.881309496024555</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="6" t="n">
+        <v>-0.8841593173208444</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,45; 9,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,51; 5,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.320037051727525</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>3.41304147577581</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>2.551209534003462</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.398747520303309</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="6" t="n">
+        <v>0.3752091694691006</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.311972403749154</v>
+      </c>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +847,185 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-4,06%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-10,68%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>46,86%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>85,64%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.8284838419587048</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-6.09021432026184</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.07995315624197426</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5037083149068876</v>
+      </c>
+      <c r="J10" s="6" t="inlineStr"/>
+      <c r="K10" s="6" t="inlineStr"/>
+      <c r="L10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,96; 4,03</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,38; 2,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,07; 2,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 2,58</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-43,86; 87,32</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-57,52; 115,13</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-52,21; 741,65</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-26.38486158916107</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-44.80120181781354</v>
+      </c>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>22.38365391591994</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.91678564300453</v>
+      </c>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.519749499636946</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4326429139189486</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.247811324947719</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>2.222427820560561</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.1187234690125842</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.05542466660371768</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.6805047758155094</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1.32515200831493</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-6.03034960561472</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.866073278653942</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.838323787653597</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.5078184955521967</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="6" t="n">
+        <v>-0.3663557907570975</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.4917883385246236</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.7331740182739401</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.4682667665118188</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.493378253899664</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.277360842647959</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>3.852730603741245</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.214830847279948</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="6" t="n">
+        <v>0.8680073811356063</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.202591984754368</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>5.96981951458197</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>8.989862500508414</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1033,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
